--- a/index/index.xlsx
+++ b/index/index.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\pipetbooks\basic\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\pipetbooks\basic\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469C2EDF-55D6-451A-9532-446BA4F76385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13BB987-8CE0-4F3F-B67A-FE930E3A3ABA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5670" windowWidth="16440" windowHeight="28440" xr2:uid="{ECD2918D-62A0-4856-BE13-E9328C629C28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECD2918D-62A0-4856-BE13-E9328C629C28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$I$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="283">
   <si>
     <t>대각행렬</t>
   </si>
@@ -532,13 +532,376 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <r>
+      <t>완전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ω블록</t>
+    </r>
+  </si>
+  <si>
+    <t>full omega block</t>
+  </si>
+  <si>
+    <t>외부검증</t>
+  </si>
+  <si>
+    <t>external validation</t>
+  </si>
+  <si>
+    <t>이상치</t>
+  </si>
+  <si>
+    <t>outlier</t>
+  </si>
+  <si>
+    <t>임의효과</t>
+  </si>
+  <si>
+    <t>random-effect</t>
+  </si>
+  <si>
+    <t>random-effect\|random effect</t>
+  </si>
+  <si>
+    <t>time-dependent covariate|time-varying covariate</t>
+  </si>
+  <si>
+    <t>입출력모델</t>
+  </si>
+  <si>
+    <t>input-output model</t>
+  </si>
+  <si>
+    <t>잔차</t>
+  </si>
+  <si>
+    <t>residual error</t>
+  </si>
+  <si>
+    <t>재파라미터화</t>
+  </si>
+  <si>
+    <t>reparameterization</t>
+  </si>
+  <si>
+    <t>저장구획</t>
+  </si>
+  <si>
+    <t>depot compartment</t>
+  </si>
+  <si>
+    <t>depot\|Depot</t>
+  </si>
+  <si>
+    <t>적합도</t>
+  </si>
+  <si>
+    <t>goodness of fit</t>
+  </si>
+  <si>
+    <t>god\|GOF\|Goodness of fit\|goodness of fit</t>
+  </si>
+  <si>
+    <t>전진선택\|전진 선택</t>
+  </si>
+  <si>
+    <t>전진선택</t>
+  </si>
+  <si>
+    <t>forward selection</t>
+  </si>
+  <si>
+    <t>전체적 최소값</t>
+  </si>
+  <si>
+    <t>global minimum</t>
+  </si>
+  <si>
+    <t>절약원리</t>
+  </si>
+  <si>
+    <t>parsimony(rule of parsimony)</t>
+  </si>
+  <si>
+    <t>parsimony\|Parsimony</t>
+  </si>
+  <si>
+    <t>정규화 예측분포오차</t>
+  </si>
+  <si>
+    <t>normalized prediction distribution errors(NPDE)</t>
+  </si>
+  <si>
+    <t>NPDE</t>
+  </si>
+  <si>
+    <t>조건부 가중 잔차</t>
+  </si>
+  <si>
+    <t>conditional weighted residuals</t>
+  </si>
+  <si>
+    <t>conditional weighted residuals\|CWRES\|cwres</t>
+  </si>
+  <si>
+    <t>조건부 추정법</t>
+  </si>
+  <si>
+    <t>conditional estimation method</t>
+  </si>
+  <si>
+    <t>조건수</t>
+  </si>
+  <si>
+    <t>condition number</t>
+  </si>
+  <si>
+    <t>종속변수</t>
+  </si>
+  <si>
+    <t>종속변수(DV)</t>
+  </si>
+  <si>
+    <t>dependent variable(DV)</t>
+  </si>
+  <si>
+    <t>dependent variable\| DV에\| DV는\| DV,</t>
+  </si>
+  <si>
+    <t>직접 효과 모델</t>
+  </si>
+  <si>
+    <t>직접 효과 모델\|직접효과\|직접 효과</t>
+  </si>
+  <si>
+    <t>direct-effect model</t>
+  </si>
+  <si>
+    <t>집단모델</t>
+  </si>
+  <si>
+    <t>population model</t>
+  </si>
+  <si>
+    <t>척도 파라미터</t>
+  </si>
+  <si>
+    <t>scaling parameter</t>
+  </si>
+  <si>
+    <t>scaling</t>
+  </si>
+  <si>
+    <t>추정값의 표준오차</t>
+  </si>
+  <si>
+    <t>standard errors of the estimates</t>
+  </si>
+  <si>
+    <t>standard error</t>
+  </si>
+  <si>
+    <t>축소</t>
+  </si>
+  <si>
+    <t>shrinkage</t>
+  </si>
+  <si>
+    <t>탐색적 데이터 분석</t>
+  </si>
+  <si>
+    <t>탐색적 데이터 분석(EDA)</t>
+  </si>
+  <si>
+    <t>exploratory data analysis(EDA)</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>투약 후 경과시간</t>
+  </si>
+  <si>
+    <t>time after dose</t>
+  </si>
+  <si>
+    <t>time after dose\|Time after dose</t>
+  </si>
+  <si>
+    <t>투여간격</t>
+  </si>
+  <si>
+    <t>interdose interval(II)</t>
+  </si>
+  <si>
+    <t>interdose interval</t>
+  </si>
+  <si>
+    <t>특수 ADVAN</t>
+  </si>
+  <si>
+    <t>specific ADVANs</t>
+  </si>
+  <si>
+    <t>specific ADVAN</t>
+  </si>
+  <si>
+    <t>표식 변수</t>
+  </si>
+  <si>
+    <t>indicator variables</t>
+  </si>
+  <si>
+    <t>indicator variable</t>
+  </si>
+  <si>
+    <t>허용치</t>
+  </si>
+  <si>
+    <t>tolerance</t>
+  </si>
+  <si>
+    <t>혼합모델</t>
+  </si>
+  <si>
+    <t>mixture model</t>
+  </si>
+  <si>
+    <t>mixture model\|Mixture model</t>
+  </si>
+  <si>
+    <t>후진제거</t>
+  </si>
+  <si>
+    <t>backward elimination</t>
+  </si>
+  <si>
+    <t>backward elimination\|Backward elimination</t>
+  </si>
+  <si>
+    <t>희박자료</t>
+  </si>
+  <si>
+    <t>sparse data</t>
+  </si>
+  <si>
+    <t>1차 조건부 추정방법(FOCE)</t>
+  </si>
+  <si>
+    <t>FOCE</t>
+  </si>
+  <si>
+    <t>1차 조건부 추정방법\|FOCE</t>
+  </si>
+  <si>
+    <t>1차추정법</t>
+  </si>
+  <si>
+    <t>first-order method(FO)</t>
+  </si>
+  <si>
+    <t>first-order conditional estimation method(FOCE)</t>
+  </si>
+  <si>
+    <t>FO \|1차추정법</t>
+  </si>
+  <si>
+    <t>FO \|first-order method</t>
+  </si>
+  <si>
+    <t>1차흡수</t>
+  </si>
+  <si>
+    <t>first-order absorption</t>
+  </si>
+  <si>
+    <t>2단계 접근법</t>
+  </si>
+  <si>
+    <t>two-stage approach</t>
+  </si>
+  <si>
+    <t>FOCEI\|INTERACTION 옵션을 쓰는 1차 조건부 추정방법(FOCEI)</t>
+  </si>
+  <si>
+    <t>INTERACTION 옵션을 쓰는 1차 조건부 추정방법(FOCEI)</t>
+  </si>
+  <si>
+    <t>first-order conditional estimation with interaction(FOCEI)</t>
+  </si>
+  <si>
+    <t>FOCEI</t>
+  </si>
+  <si>
+    <t>NM-TRAN\|NM-TRAN 제어구문</t>
+  </si>
+  <si>
+    <t>NM-TRAN 제어구문</t>
+  </si>
+  <si>
+    <t>NM-TRAN control stream</t>
+  </si>
+  <si>
+    <t>NM-TRAN</t>
+  </si>
+  <si>
+    <t>NONMEM 보고 파일\|NONMEM output\|NONMEM report</t>
+  </si>
+  <si>
+    <t>NONMEM 보고 파일</t>
+  </si>
+  <si>
+    <t>NONMEM report file</t>
+  </si>
+  <si>
+    <t>OMEGA 행렬</t>
+  </si>
+  <si>
+    <t>omega matrix</t>
+  </si>
+  <si>
+    <t>Q-Q 플롯</t>
+  </si>
+  <si>
+    <t>Q-Q 플롯\|Q-Q</t>
+  </si>
+  <si>
+    <t>Q-Q plot</t>
+  </si>
+  <si>
+    <t>R 행렬</t>
+  </si>
+  <si>
+    <t>R matrix</t>
+  </si>
+  <si>
+    <t>S 행렬</t>
+  </si>
+  <si>
+    <t>S matrix</t>
+  </si>
+  <si>
+    <t>SIGMA 행렬</t>
+  </si>
+  <si>
+    <t>sigma matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +909,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -884,42 +1254,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820B1A01-E184-4A00-A964-5F70651C46A8}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
       <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
         <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>154</v>
       </c>
       <c r="G1" t="s">
         <v>138</v>
@@ -932,23 +1302,23 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -958,23 +1328,23 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>24</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -984,23 +1354,23 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -1013,23 +1383,23 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -1039,23 +1409,23 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>158</v>
@@ -1065,23 +1435,23 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="s">
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -1091,23 +1461,23 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
@@ -1117,23 +1487,23 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9">
-        <v>1</v>
+      <c r="A9" t="s">
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>47</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -1143,23 +1513,23 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>48</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
@@ -1169,23 +1539,23 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11">
-        <v>1</v>
+      <c r="A11" t="s">
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1195,23 +1565,23 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12">
-        <v>1</v>
+      <c r="A12" t="s">
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>45</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1221,23 +1591,23 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13">
-        <v>1</v>
+      <c r="A13" t="s">
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1247,46 +1617,46 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14">
-        <v>1</v>
+      <c r="A14" t="s">
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>50</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15">
-        <v>1</v>
+      <c r="A15" t="s">
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>52</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -1296,23 +1666,23 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16">
-        <v>1</v>
+      <c r="A16" t="s">
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>54</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
@@ -1322,23 +1692,23 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17">
-        <v>1</v>
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>56</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>160</v>
@@ -1348,23 +1718,23 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18">
-        <v>1</v>
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>58</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
@@ -1374,23 +1744,23 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19">
-        <v>1</v>
+      <c r="A19" t="s">
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>60</v>
@@ -1400,23 +1770,23 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20">
-        <v>1</v>
+      <c r="A20" t="s">
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>62</v>
@@ -1426,23 +1796,23 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21">
-        <v>1</v>
+      <c r="A21" t="s">
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>64</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>64</v>
@@ -1452,23 +1822,23 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22">
-        <v>1</v>
+      <c r="A22" t="s">
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>67</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>67</v>
@@ -1478,22 +1848,22 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23">
-        <v>1</v>
+      <c r="A23" t="s">
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>1</v>
       </c>
       <c r="G23" t="s">
@@ -1504,23 +1874,23 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24">
-        <v>1</v>
+      <c r="A24" t="s">
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
       </c>
       <c r="G24" t="s">
         <v>3</v>
@@ -1530,23 +1900,23 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25">
-        <v>1</v>
+      <c r="A25" t="s">
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>5</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -1556,23 +1926,23 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26">
-        <v>1</v>
+      <c r="A26" t="s">
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
         <v>7</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
       </c>
       <c r="G26" t="s">
         <v>7</v>
@@ -1582,23 +1952,23 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27">
-        <v>1</v>
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>9</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
@@ -1608,23 +1978,23 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28">
-        <v>1</v>
+      <c r="A28" t="s">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
         <v>11</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1634,23 +2004,23 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29">
-        <v>1</v>
+      <c r="A29" t="s">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>14</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -1660,23 +2030,23 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30">
-        <v>1</v>
+      <c r="A30" t="s">
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>16</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -1686,23 +2056,23 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31">
-        <v>1</v>
+      <c r="A31" t="s">
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>18</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
@@ -1712,23 +2082,23 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32">
-        <v>1</v>
+      <c r="A32" t="s">
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>20</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
@@ -1738,23 +2108,23 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33">
-        <v>1</v>
+      <c r="A33" t="s">
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
         <v>70</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
       </c>
       <c r="G33" t="s">
         <v>70</v>
@@ -1764,23 +2134,23 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34">
-        <v>1</v>
+      <c r="A34" t="s">
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
         <v>78</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
       </c>
       <c r="G34" t="s">
         <v>78</v>
@@ -1790,23 +2160,23 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35">
-        <v>1</v>
+      <c r="A35" t="s">
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>79</v>
       </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>80</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
       </c>
       <c r="G35" t="s">
         <v>80</v>
@@ -1819,23 +2189,23 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36">
-        <v>1</v>
+      <c r="A36" t="s">
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>81</v>
       </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
         <v>82</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>82</v>
@@ -1845,23 +2215,23 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37">
-        <v>1</v>
+      <c r="A37" t="s">
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>83</v>
       </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
         <v>84</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
       </c>
       <c r="G37" t="s">
         <v>84</v>
@@ -1871,23 +2241,23 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38">
-        <v>1</v>
+      <c r="A38" t="s">
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" t="s">
         <v>85</v>
       </c>
-      <c r="E38" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
         <v>86</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
       </c>
       <c r="G38" t="s">
         <v>86</v>
@@ -1900,23 +2270,23 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39">
-        <v>1</v>
+      <c r="A39" t="s">
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
         <v>90</v>
       </c>
-      <c r="D39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
         <v>91</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
       </c>
       <c r="G39" t="s">
         <v>91</v>
@@ -1929,23 +2299,23 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40">
-        <v>1</v>
+      <c r="A40" t="s">
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
         <v>92</v>
       </c>
-      <c r="D40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>93</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
       </c>
       <c r="G40" t="s">
         <v>93</v>
@@ -1955,23 +2325,23 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41">
-        <v>1</v>
+      <c r="A41" t="s">
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
         <v>94</v>
       </c>
-      <c r="D41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
         <v>95</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
       </c>
       <c r="G41" t="s">
         <v>95</v>
@@ -1984,23 +2354,23 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42">
-        <v>1</v>
+      <c r="A42" t="s">
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
         <v>96</v>
       </c>
-      <c r="D42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
         <v>97</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -2010,23 +2380,23 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43">
-        <v>1</v>
+      <c r="A43" t="s">
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
         <v>98</v>
       </c>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
         <v>99</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
       </c>
       <c r="G43" t="s">
         <v>99</v>
@@ -2036,23 +2406,23 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44">
-        <v>1</v>
+      <c r="A44" t="s">
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
         <v>100</v>
       </c>
-      <c r="D44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
         <v>101</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>101</v>
@@ -2062,23 +2432,23 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45">
-        <v>1</v>
+      <c r="A45" t="s">
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" t="s">
         <v>104</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
         <v>105</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
       </c>
       <c r="G45" t="s">
         <v>105</v>
@@ -2091,23 +2461,23 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46">
-        <v>1</v>
+      <c r="A46" t="s">
+        <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" t="s">
         <v>106</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
         <v>107</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
       </c>
       <c r="G46" t="s">
         <v>155</v>
@@ -2117,23 +2487,23 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47">
-        <v>1</v>
+      <c r="A47" t="s">
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
         <v>109</v>
       </c>
-      <c r="D47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
         <v>110</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
       </c>
       <c r="G47" t="s">
         <v>110</v>
@@ -2143,23 +2513,23 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48">
-        <v>1</v>
+      <c r="A48" t="s">
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
         <v>111</v>
       </c>
-      <c r="D48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
         <v>112</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
       </c>
       <c r="G48" t="s">
         <v>112</v>
@@ -2169,23 +2539,23 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49">
-        <v>1</v>
+      <c r="A49" t="s">
+        <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
         <v>113</v>
       </c>
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
         <v>114</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
       </c>
       <c r="G49" t="s">
         <v>114</v>
@@ -2198,23 +2568,23 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50">
-        <v>1</v>
+      <c r="A50" t="s">
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s">
         <v>115</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
         <v>116</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
       </c>
       <c r="G50" t="s">
         <v>156</v>
@@ -2224,23 +2594,23 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51">
-        <v>1</v>
+      <c r="A51" t="s">
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
         <v>117</v>
       </c>
-      <c r="D51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
         <v>118</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
       </c>
       <c r="G51" t="s">
         <v>118</v>
@@ -2250,23 +2620,23 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52">
-        <v>1</v>
+      <c r="A52" t="s">
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" t="s">
         <v>119</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
         <v>120</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
       </c>
       <c r="G52" t="s">
         <v>157</v>
@@ -2276,26 +2646,26 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53">
-        <v>1</v>
+      <c r="A53" t="s">
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
         <v>123</v>
       </c>
-      <c r="D53" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
         <v>124</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
       <c r="G53" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="H53" t="s">
         <v>164</v>
@@ -2305,23 +2675,23 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54">
-        <v>1</v>
+      <c r="A54" t="s">
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" t="s">
         <v>125</v>
       </c>
-      <c r="E54" t="s">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
         <v>126</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
       </c>
       <c r="G54" t="s">
         <v>126</v>
@@ -2331,23 +2701,23 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55">
-        <v>1</v>
+      <c r="A55" t="s">
+        <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
         <v>127</v>
       </c>
-      <c r="D55" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
         <v>128</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
       </c>
       <c r="G55" t="s">
         <v>128</v>
@@ -2357,23 +2727,23 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56">
-        <v>1</v>
+      <c r="A56" t="s">
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
         <v>129</v>
       </c>
-      <c r="D56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
         <v>130</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
       </c>
       <c r="G56" t="s">
         <v>130</v>
@@ -2386,23 +2756,23 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57">
-        <v>1</v>
+      <c r="A57" t="s">
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
         <v>131</v>
       </c>
-      <c r="D57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
         <v>132</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
       </c>
       <c r="G57" t="s">
         <v>132</v>
@@ -2412,23 +2782,23 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58">
-        <v>0</v>
+      <c r="A58" t="s">
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
         <v>135</v>
       </c>
-      <c r="D58" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>136</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
       </c>
       <c r="G58" t="s">
         <v>136</v>
@@ -2438,14 +2808,890 @@
       </c>
       <c r="I58" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.5">
+      <c r="A59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>167</v>
+      </c>
+      <c r="G59" t="s">
+        <v>167</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>177</v>
+      </c>
+      <c r="G63" t="s">
+        <v>177</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>179</v>
+      </c>
+      <c r="G64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>183</v>
+      </c>
+      <c r="G66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>186</v>
+      </c>
+      <c r="G67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>192</v>
+      </c>
+      <c r="G69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>194</v>
+      </c>
+      <c r="G70" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>197</v>
+      </c>
+      <c r="G71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>200</v>
+      </c>
+      <c r="G72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>203</v>
+      </c>
+      <c r="G73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>208</v>
+      </c>
+      <c r="G75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>212</v>
+      </c>
+      <c r="G76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>214</v>
+      </c>
+      <c r="G77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>219</v>
+      </c>
+      <c r="G79" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>222</v>
+      </c>
+      <c r="G80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>225</v>
+      </c>
+      <c r="G81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>228</v>
+      </c>
+      <c r="G82" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>231</v>
+      </c>
+      <c r="G83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>234</v>
+      </c>
+      <c r="G84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>237</v>
+      </c>
+      <c r="G85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>242</v>
+      </c>
+      <c r="G87" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" t="s">
+        <v>244</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>245</v>
+      </c>
+      <c r="G88" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>248</v>
+      </c>
+      <c r="G89" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>254</v>
+      </c>
+      <c r="G90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>253</v>
+      </c>
+      <c r="G91" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" t="s">
+        <v>257</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>258</v>
+      </c>
+      <c r="G92" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" t="s">
+        <v>259</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>260</v>
+      </c>
+      <c r="G93" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" t="s">
+        <v>262</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>263</v>
+      </c>
+      <c r="G94" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" t="s">
+        <v>266</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>267</v>
+      </c>
+      <c r="G95" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" t="s">
+        <v>269</v>
+      </c>
+      <c r="C96" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>271</v>
+      </c>
+      <c r="G96" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" t="s">
+        <v>272</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>273</v>
+      </c>
+      <c r="G97" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" t="s">
+        <v>275</v>
+      </c>
+      <c r="C98" t="s">
+        <v>274</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>276</v>
+      </c>
+      <c r="G98" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" t="s">
+        <v>277</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>278</v>
+      </c>
+      <c r="G99" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" t="s">
+        <v>279</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>280</v>
+      </c>
+      <c r="G100" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" t="s">
+        <v>281</v>
+      </c>
+      <c r="C101" t="s">
+        <v>281</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>282</v>
+      </c>
+      <c r="G101" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I58" xr:uid="{5F4D74AF-3B29-4796-93B0-9FAE611FB410}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I58">
-      <sortCondition ref="C1:C58"/>
+      <sortCondition ref="B1:B58"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/index/index.xlsx
+++ b/index/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\pipetbooks\basic\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13BB987-8CE0-4F3F-B67A-FE930E3A3ABA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E9EECD-879C-4F78-B97B-4E5874F7B23B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECD2918D-62A0-4856-BE13-E9328C629C28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="286">
   <si>
     <t>대각행렬</t>
   </si>
@@ -895,6 +895,15 @@
   </si>
   <si>
     <t>sigma matrix</t>
+  </si>
+  <si>
+    <t>$AES</t>
+  </si>
+  <si>
+    <t>$COVARIANCE</t>
+  </si>
+  <si>
+    <t>`-2LL</t>
   </si>
 </sst>
 </file>
@@ -1254,11 +1263,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820B1A01-E184-4A00-A964-5F70651C46A8}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3685,6 +3694,27 @@
         <v>282</v>
       </c>
     </row>
+    <row r="102" spans="2:7">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="F104" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I58" xr:uid="{5F4D74AF-3B29-4796-93B0-9FAE611FB410}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I58">
